--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Timp1-Cd63.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Timp1-Cd63.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.462258333333333</v>
+        <v>0.158605</v>
       </c>
       <c r="H2">
-        <v>7.386775</v>
+        <v>0.475815</v>
       </c>
       <c r="I2">
-        <v>0.04766847958679572</v>
+        <v>0.005248964619762229</v>
       </c>
       <c r="J2">
-        <v>0.04766847958679572</v>
+        <v>0.005248964619762229</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.76498299999999</v>
+        <v>1.275643</v>
       </c>
       <c r="N2">
-        <v>266.294949</v>
+        <v>3.826929</v>
       </c>
       <c r="O2">
-        <v>0.2826061427173424</v>
+        <v>0.008652234199457187</v>
       </c>
       <c r="P2">
-        <v>0.2826061427173424</v>
+        <v>0.008652234199457187</v>
       </c>
       <c r="Q2">
-        <v>218.5623190999416</v>
+        <v>0.202323358015</v>
       </c>
       <c r="R2">
-        <v>1967.060871899475</v>
+        <v>1.820910222135</v>
       </c>
       <c r="S2">
-        <v>0.01347140514522471</v>
+        <v>4.541527119484754E-05</v>
       </c>
       <c r="T2">
-        <v>0.01347140514522471</v>
+        <v>4.541527119484755E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.462258333333333</v>
+        <v>0.158605</v>
       </c>
       <c r="H3">
-        <v>7.386775</v>
+        <v>0.475815</v>
       </c>
       <c r="I3">
-        <v>0.04766847958679572</v>
+        <v>0.005248964619762229</v>
       </c>
       <c r="J3">
-        <v>0.04766847958679572</v>
+        <v>0.005248964619762229</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>293.861786</v>
       </c>
       <c r="O3">
-        <v>0.3118615135035443</v>
+        <v>0.6643867693241158</v>
       </c>
       <c r="P3">
-        <v>0.3118615135035442</v>
+        <v>0.6643867693241158</v>
       </c>
       <c r="Q3">
-        <v>241.1878771422389</v>
+        <v>15.53598285617667</v>
       </c>
       <c r="R3">
-        <v>2170.69089428015</v>
+        <v>139.82384570559</v>
       </c>
       <c r="S3">
-        <v>0.01486596419035092</v>
+        <v>0.003487342646020413</v>
       </c>
       <c r="T3">
-        <v>0.01486596419035092</v>
+        <v>0.003487342646020413</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.462258333333333</v>
+        <v>0.158605</v>
       </c>
       <c r="H4">
-        <v>7.386775</v>
+        <v>0.475815</v>
       </c>
       <c r="I4">
-        <v>0.04766847958679572</v>
+        <v>0.005248964619762229</v>
       </c>
       <c r="J4">
-        <v>0.04766847958679572</v>
+        <v>0.005248964619762229</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>127.375404</v>
+        <v>48.20552666666666</v>
       </c>
       <c r="N4">
-        <v>382.126212</v>
+        <v>144.61658</v>
       </c>
       <c r="O4">
-        <v>0.4055323437791133</v>
+        <v>0.326960996476427</v>
       </c>
       <c r="P4">
-        <v>0.4055323437791133</v>
+        <v>0.326960996476427</v>
       </c>
       <c r="Q4">
-        <v>313.6311499607</v>
+        <v>7.645637556966666</v>
       </c>
       <c r="R4">
-        <v>2822.6803496463</v>
+        <v>68.8107380127</v>
       </c>
       <c r="S4">
-        <v>0.01933111025122009</v>
+        <v>0.001716206702546968</v>
       </c>
       <c r="T4">
-        <v>0.01933111025122009</v>
+        <v>0.001716206702546968</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>83.936285</v>
       </c>
       <c r="I5">
-        <v>0.5416592610596597</v>
+        <v>0.9259451473351599</v>
       </c>
       <c r="J5">
-        <v>0.5416592610596597</v>
+        <v>0.92594514733516</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.76498299999999</v>
+        <v>1.275643</v>
       </c>
       <c r="N5">
-        <v>266.294949</v>
+        <v>3.826929</v>
       </c>
       <c r="O5">
-        <v>0.2826061427173424</v>
+        <v>0.008652234199457187</v>
       </c>
       <c r="P5">
-        <v>0.2826061427173424</v>
+        <v>0.008652234199457187</v>
       </c>
       <c r="Q5">
-        <v>2483.534303702718</v>
+        <v>35.69091146875167</v>
       </c>
       <c r="R5">
-        <v>22351.80873332446</v>
+        <v>321.218203218765</v>
       </c>
       <c r="S5">
-        <v>0.1530762344351964</v>
+        <v>0.008011494270594693</v>
       </c>
       <c r="T5">
-        <v>0.1530762344351964</v>
+        <v>0.008011494270594695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>83.936285</v>
       </c>
       <c r="I6">
-        <v>0.5416592610596597</v>
+        <v>0.9259451473351599</v>
       </c>
       <c r="J6">
-        <v>0.5416592610596597</v>
+        <v>0.92594514733516</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>293.861786</v>
       </c>
       <c r="O6">
-        <v>0.3118615135035443</v>
+        <v>0.6643867693241158</v>
       </c>
       <c r="P6">
-        <v>0.3118615135035442</v>
+        <v>0.6643867693241158</v>
       </c>
       <c r="Q6">
         <v>2740.629624478335</v>
@@ -818,10 +818,10 @@
         <v>24665.66662030501</v>
       </c>
       <c r="S6">
-        <v>0.1689226769572769</v>
+        <v>0.6151857050093492</v>
       </c>
       <c r="T6">
-        <v>0.1689226769572769</v>
+        <v>0.6151857050093493</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>83.936285</v>
       </c>
       <c r="I7">
-        <v>0.5416592610596597</v>
+        <v>0.9259451473351599</v>
       </c>
       <c r="J7">
-        <v>0.5416592610596597</v>
+        <v>0.92594514733516</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>127.375404</v>
+        <v>48.20552666666666</v>
       </c>
       <c r="N7">
-        <v>382.126212</v>
+        <v>144.61658</v>
       </c>
       <c r="O7">
-        <v>0.4055323437791133</v>
+        <v>0.326960996476427</v>
       </c>
       <c r="P7">
-        <v>0.4055323437791133</v>
+        <v>0.326960996476427</v>
       </c>
       <c r="Q7">
-        <v>3563.80607071138</v>
+        <v>1348.730941622811</v>
       </c>
       <c r="R7">
-        <v>32074.25463640242</v>
+        <v>12138.5784746053</v>
       </c>
       <c r="S7">
-        <v>0.2196603496671864</v>
+        <v>0.3027479480552158</v>
       </c>
       <c r="T7">
-        <v>0.2196603496671864</v>
+        <v>0.3027479480552159</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.21278466666666</v>
+        <v>2.079068666666667</v>
       </c>
       <c r="H8">
-        <v>63.63835399999999</v>
+        <v>6.237206</v>
       </c>
       <c r="I8">
-        <v>0.4106722593535446</v>
+        <v>0.0688058880450778</v>
       </c>
       <c r="J8">
-        <v>0.4106722593535446</v>
+        <v>0.06880588804507781</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.76498299999999</v>
+        <v>1.275643</v>
       </c>
       <c r="N8">
-        <v>266.294949</v>
+        <v>3.826929</v>
       </c>
       <c r="O8">
-        <v>0.2826061427173424</v>
+        <v>0.008652234199457187</v>
       </c>
       <c r="P8">
-        <v>0.2826061427173424</v>
+        <v>0.008652234199457187</v>
       </c>
       <c r="Q8">
-        <v>1882.952470319327</v>
+        <v>2.652149391152667</v>
       </c>
       <c r="R8">
-        <v>16946.57223287394</v>
+        <v>23.869344520374</v>
       </c>
       <c r="S8">
-        <v>0.1160585031369212</v>
+        <v>0.0005953246576676446</v>
       </c>
       <c r="T8">
-        <v>0.1160585031369213</v>
+        <v>0.0005953246576676447</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.21278466666666</v>
+        <v>2.079068666666667</v>
       </c>
       <c r="H9">
-        <v>63.63835399999999</v>
+        <v>6.237206</v>
       </c>
       <c r="I9">
-        <v>0.4106722593535446</v>
+        <v>0.0688058880450778</v>
       </c>
       <c r="J9">
-        <v>0.4106722593535446</v>
+        <v>0.06880588804507781</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>293.861786</v>
       </c>
       <c r="O9">
-        <v>0.3118615135035443</v>
+        <v>0.6643867693241158</v>
       </c>
       <c r="P9">
-        <v>0.3118615135035442</v>
+        <v>0.6643867693241158</v>
       </c>
       <c r="Q9">
-        <v>2077.875596060027</v>
+        <v>203.6529438677684</v>
       </c>
       <c r="R9">
-        <v>18700.88036454024</v>
+        <v>1832.876494809916</v>
       </c>
       <c r="S9">
-        <v>0.1280728723559165</v>
+        <v>0.04571372166874604</v>
       </c>
       <c r="T9">
-        <v>0.1280728723559165</v>
+        <v>0.04571372166874605</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.21278466666666</v>
+        <v>2.079068666666667</v>
       </c>
       <c r="H10">
-        <v>63.63835399999999</v>
+        <v>6.237206</v>
       </c>
       <c r="I10">
-        <v>0.4106722593535446</v>
+        <v>0.0688058880450778</v>
       </c>
       <c r="J10">
-        <v>0.4106722593535446</v>
+        <v>0.06880588804507781</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>127.375404</v>
+        <v>48.20552666666666</v>
       </c>
       <c r="N10">
-        <v>382.126212</v>
+        <v>144.61658</v>
       </c>
       <c r="O10">
-        <v>0.4055323437791133</v>
+        <v>0.326960996476427</v>
       </c>
       <c r="P10">
-        <v>0.4055323437791133</v>
+        <v>0.326960996476427</v>
       </c>
       <c r="Q10">
-        <v>2701.987016881672</v>
+        <v>100.2226000528311</v>
       </c>
       <c r="R10">
-        <v>24317.88315193505</v>
+        <v>902.00340047548</v>
       </c>
       <c r="S10">
-        <v>0.1665408838607068</v>
+        <v>0.02249684171866411</v>
       </c>
       <c r="T10">
-        <v>0.1665408838607068</v>
+        <v>0.02249684171866412</v>
       </c>
     </row>
   </sheetData>
